--- a/reports/summary_TS_Cyto.xlsx
+++ b/reports/summary_TS_Cyto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +471,11 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Max Measurement P-Value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Max Change Rate (Normalized)</t>
         </is>
       </c>
@@ -502,6 +507,9 @@
         <v>18.8</v>
       </c>
       <c r="H2" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.129330248758972</v>
       </c>
     </row>
@@ -532,6 +540,9 @@
         <v>7.2</v>
       </c>
       <c r="H3" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.867567914166014</v>
       </c>
     </row>
@@ -562,6 +573,9 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I4" t="n">
         <v>62.11170293440139</v>
       </c>
     </row>
@@ -592,6 +606,9 @@
         <v>18.8</v>
       </c>
       <c r="H5" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="I5" t="n">
         <v>5.768561163655051</v>
       </c>
     </row>
@@ -622,6 +639,9 @@
         <v>4.8</v>
       </c>
       <c r="H6" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="I6" t="n">
         <v>2.693923021172794</v>
       </c>
     </row>
@@ -652,6 +672,9 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="I7" t="n">
         <v>78.91763785355397</v>
       </c>
     </row>

--- a/reports/summary_TS_Cyto.xlsx
+++ b/reports/summary_TS_Cyto.xlsx
@@ -492,25 +492,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>102.963778495886</v>
+        <v>122.3019890621943</v>
       </c>
       <c r="D2" t="n">
-        <v>10.0691445387007</v>
+        <v>12.02999900678736</v>
       </c>
       <c r="E2" t="n">
-        <v>21.84467045025129</v>
+        <v>21.98193347089108</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>23.2</v>
       </c>
       <c r="G2" t="n">
-        <v>18.8</v>
+        <v>19.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="I2" t="n">
-        <v>2.129330248758972</v>
+        <v>2.140838649134776</v>
       </c>
     </row>
     <row r="3">
@@ -525,25 +525,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>256.2450883232257</v>
+        <v>288.8176682923635</v>
       </c>
       <c r="D3" t="n">
-        <v>5.559044702253426</v>
+        <v>6.253213168866016</v>
       </c>
       <c r="E3" t="n">
-        <v>40.28262356926412</v>
+        <v>44.97226453172003</v>
       </c>
       <c r="F3" t="n">
-        <v>20.4</v>
+        <v>23.8</v>
       </c>
       <c r="G3" t="n">
-        <v>7.2</v>
+        <v>15.8</v>
       </c>
       <c r="H3" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.867567914166014</v>
+        <v>0.9745461379861</v>
       </c>
     </row>
     <row r="4">
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01</v>
+        <v>0.002</v>
       </c>
       <c r="I4" t="n">
         <v>62.11170293440139</v>
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>680.4944559228675</v>
+        <v>893.8406493774877</v>
       </c>
       <c r="D5" t="n">
-        <v>24.63748840958583</v>
+        <v>32.30690849454847</v>
       </c>
       <c r="E5" t="n">
-        <v>159.9929697018891</v>
+        <v>187.4783830474087</v>
       </c>
       <c r="F5" t="n">
-        <v>20.2</v>
+        <v>23.2</v>
       </c>
       <c r="G5" t="n">
-        <v>18.8</v>
+        <v>22</v>
       </c>
       <c r="H5" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5.768561163655051</v>
+        <v>6.666746626390105</v>
       </c>
     </row>
     <row r="6">
@@ -624,22 +624,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1224.091207769394</v>
+        <v>1303.178368230135</v>
       </c>
       <c r="D6" t="n">
-        <v>16.71789225045745</v>
+        <v>17.76547139832886</v>
       </c>
       <c r="E6" t="n">
         <v>202.280495941307</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>23.8</v>
       </c>
       <c r="G6" t="n">
         <v>4.8</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>2.693923021172794</v>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="I7" t="n">
         <v>78.91763785355397</v>

--- a/reports/summary_TS_Cyto.xlsx
+++ b/reports/summary_TS_Cyto.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
         <v>15.8</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="I3" t="n">
         <v>0.9745461379861</v>
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>62.11170293440139</v>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>78.91763785355397</v>

--- a/reports/summary_TS_Cyto.xlsx
+++ b/reports/summary_TS_Cyto.xlsx
@@ -507,7 +507,7 @@
         <v>19.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I2" t="n">
         <v>2.140838649134776</v>
@@ -540,7 +540,7 @@
         <v>15.8</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="I3" t="n">
         <v>0.9745461379861</v>
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="I4" t="n">
         <v>62.11170293440139</v>
@@ -639,7 +639,7 @@
         <v>4.8</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="I6" t="n">
         <v>2.693923021172794</v>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="I7" t="n">
         <v>78.91763785355397</v>
